--- a/Mifos Automation Excels/Client/2556-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2556-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -159,24 +159,15 @@
     <t>Cash(1)</t>
   </si>
   <si>
-    <t>L14</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
     <t>L15</t>
   </si>
   <si>
-    <t>L46</t>
-  </si>
-  <si>
     <t>Accrual</t>
   </si>
   <si>
-    <t>L20</t>
-  </si>
-  <si>
     <t>system</t>
   </si>
   <si>
@@ -186,28 +177,37 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L21</t>
-  </si>
-  <si>
-    <t>L24</t>
+    <t>L75</t>
+  </si>
+  <si>
+    <t>L80</t>
+  </si>
+  <si>
+    <t>L77</t>
+  </si>
+  <si>
+    <t>L78</t>
+  </si>
+  <si>
+    <t>L81</t>
+  </si>
+  <si>
+    <t>$ 50</t>
   </si>
   <si>
     <t>$ 900</t>
   </si>
   <si>
-    <t>$ 50</t>
-  </si>
-  <si>
     <t>$ 950</t>
   </si>
   <si>
+    <t>$ 41</t>
+  </si>
+  <si>
     <t>$ 836.73</t>
   </si>
   <si>
-    <t>$ 41</t>
-  </si>
-  <si>
-    <t>$ 877.73</t>
+    <t>$ 88.73</t>
   </si>
   <si>
     <t>$ 82.63</t>
@@ -311,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -338,9 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -353,15 +350,12 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +696,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +916,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -963,6 +958,9 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -994,6 +992,7 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1035,6 +1034,9 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
       <c r="P5" s="6">
         <v>10.76</v>
       </c>
@@ -1078,6 +1080,9 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
       <c r="P6" s="6">
         <v>888.49</v>
       </c>
@@ -1121,6 +1126,9 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
       <c r="P7" s="6">
         <v>888.49</v>
       </c>
@@ -1164,6 +1172,9 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
       <c r="P8" s="6">
         <v>888.49</v>
       </c>
@@ -1207,6 +1218,9 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
       <c r="P9" s="6">
         <v>888.49</v>
       </c>
@@ -1250,6 +1264,9 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
       <c r="P10" s="6">
         <v>888.49</v>
       </c>
@@ -1293,6 +1310,9 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
       <c r="P11" s="6">
         <v>888.49</v>
       </c>
@@ -1336,6 +1356,9 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
       <c r="P12" s="6">
         <v>888.49</v>
       </c>
@@ -1379,6 +1402,9 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
       <c r="P13" s="6">
         <v>888.49</v>
       </c>
@@ -1422,6 +1448,9 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
       <c r="P14" s="6">
         <v>888.49</v>
       </c>
@@ -1463,6 +1492,9 @@
         <v>0</v>
       </c>
       <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
         <v>0</v>
       </c>
       <c r="P15" s="6">
@@ -1480,7 +1512,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1564,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>4785</v>
+        <v>81</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1541,7 +1573,7 @@
         <v>42095</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6">
         <v>82.63</v>
@@ -1566,7 +1598,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>4784</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1600,7 +1632,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>4776</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1609,7 +1641,7 @@
         <v>42064</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="6">
         <v>41</v>
@@ -1634,7 +1666,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4773</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1668,7 +1700,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>4775</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -1677,7 +1709,7 @@
         <v>42036</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6">
         <v>50</v>
@@ -1702,7 +1734,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>4770</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>27</v>
@@ -1736,7 +1768,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>4769</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>27</v>
@@ -1778,7 +1810,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,26 +1963,26 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>31</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="6">
+        <v>145</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19" t="s">
@@ -1958,26 +1990,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>32</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="6">
+        <v>146</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
+      <c r="G3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19" t="s">
@@ -1985,42 +2017,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>33</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="6">
+        <v>147</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>58</v>
       </c>
       <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2031,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2109,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>40</v>
@@ -2099,10 +2120,10 @@
       <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -2115,7 +2136,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>40</v>
@@ -2126,8 +2147,8 @@
       <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2138,27 +2159,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="7.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2187,103 +2208,86 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>100</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>158</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="17">
         <v>42064</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>42</v>
+      <c r="G2" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>101</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>159</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="17">
         <v>42064</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
+      <c r="G3" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>102</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>160</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <v>42064</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,214 +2298,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="6">
+        <v>150</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>151</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>152</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="F5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>153</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C6" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>35</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>161</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="18">
-        <v>42064</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="C8" s="7">
+        <v>42095</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>36</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>44</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="18">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>46</v>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>45</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="6">
+        <v>162</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="7">
         <v>42095</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="23"/>
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
         <v>62</v>
       </c>

--- a/Mifos Automation Excels/Client/2556-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2556-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-AMT-VAR-INST-PERIODIC-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -216,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,6 +371,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -413,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +454,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,6 +506,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,10 +857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,12 +878,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="21" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -881,17 +924,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -918,8 +962,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -957,17 +1002,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -994,8 +1040,9 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1031,17 +1078,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>10.76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1077,17 +1125,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1123,17 +1172,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1169,17 +1219,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1215,17 +1266,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1261,17 +1313,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1307,17 +1360,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1353,17 +1407,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1399,17 +1454,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1445,17 +1501,18 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1491,13 +1548,14 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
+      <c r="N15" s="6"/>
       <c r="O15" s="6">
         <v>0</v>
       </c>
       <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>708.94</v>
       </c>
     </row>
@@ -2298,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
